--- a/java.xlsx
+++ b/java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A974EE-7EBB-418E-BCEA-76549B7413F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0ED98-CB3C-43F6-839C-9E2A6D69BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>add true in for loop if condition is not specified</t>
+  </si>
+  <si>
+    <t>add return statement in the method</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +388,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0ED98-CB3C-43F6-839C-9E2A6D69BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE5919-6058-4EC4-A30D-253993699F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>add return statement in the method</t>
+  </si>
+  <si>
+    <t>add default constructor</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -393,6 +396,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java.xlsx
+++ b/java.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE5919-6058-4EC4-A30D-253993699F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0E584-8C04-47E8-B381-2231FC2E4ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>add default constructor</t>
+  </si>
+  <si>
+    <t>add super() statement in child class constructor</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +404,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0E584-8C04-47E8-B381-2231FC2E4ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63295B-F980-45E8-84AD-DBF2ED184315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiler" sheetId="1" r:id="rId1"/>
+    <sheet name="Visibility" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -46,13 +47,49 @@
   </si>
   <si>
     <t>add super() statement in child class constructor</t>
+  </si>
+  <si>
+    <t>Current package</t>
+  </si>
+  <si>
+    <t>diff package</t>
+  </si>
+  <si>
+    <t>current class</t>
+  </si>
+  <si>
+    <t>child class</t>
+  </si>
+  <si>
+    <t>non-child class</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package-private </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +97,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,12 +151,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -412,4 +511,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30467E-2232-415A-B79B-EACAD46F013C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63295B-F980-45E8-84AD-DBF2ED184315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071B02F-26EB-41BD-AE04-CF665646176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiler" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>private</t>
+  </si>
+  <si>
+    <t>add 'extends Object'</t>
   </si>
 </sst>
 </file>
@@ -172,9 +175,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -182,6 +182,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,9 +465,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -508,6 +511,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30467E-2232-415A-B79B-EACAD46F013C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -532,110 +540,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
     </row>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071B02F-26EB-41BD-AE04-CF665646176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC1FCB3-4287-4121-8E48-C10FB4BE2296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>add 'extends Object'</t>
+  </si>
+  <si>
+    <t>add 'public static final' for interface variable</t>
+  </si>
+  <si>
+    <t>add 'public abstract' for interface methods</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +520,16 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC1FCB3-4287-4121-8E48-C10FB4BE2296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FA35F-A298-4D13-A6D5-E07649ED7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiler" sheetId="1" r:id="rId1"/>
     <sheet name="Visibility" sheetId="2" r:id="rId2"/>
+    <sheet name="Diff C A I" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -92,13 +93,61 @@
   </si>
   <si>
     <t>add 'public abstract' for interface methods</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>all types</t>
+  </si>
+  <si>
+    <t>only public static final</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>only concrete method</t>
+  </si>
+  <si>
+    <t>only public and abstract</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>NSB</t>
+  </si>
+  <si>
+    <t>ref var</t>
+  </si>
+  <si>
+    <t>object creation</t>
+  </si>
+  <si>
+    <t>mulitple inheritance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +158,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -191,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -670,4 +728,149 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234296D8-4CA0-4BA8-8A30-10D9A14D3245}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FA35F-A298-4D13-A6D5-E07649ED7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C30E3F-EF99-41B7-8AF7-09BC6B27CDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiler" sheetId="1" r:id="rId1"/>
     <sheet name="Visibility" sheetId="2" r:id="rId2"/>
     <sheet name="Diff C A I" sheetId="3" r:id="rId3"/>
+    <sheet name="Collection" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -141,6 +142,51 @@
   </si>
   <si>
     <t>mulitple inheritance</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector </t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>ArrayDeque</t>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>allowed</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>multiple null</t>
+  </si>
+  <si>
+    <t>one null</t>
   </si>
 </sst>
 </file>
@@ -245,10 +291,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,15 +660,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -734,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234296D8-4CA0-4BA8-8A30-10D9A14D3245}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -747,14 +793,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -868,6 +914,155 @@
       </c>
       <c r="D9" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D0B726-D74E-421B-8741-E1E40919769B}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B114_6AM_Java\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C30E3F-EF99-41B7-8AF7-09BC6B27CDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A9CAA-EDDA-4006-A237-ABD243F1B41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiler" sheetId="1" r:id="rId1"/>
     <sheet name="Visibility" sheetId="2" r:id="rId2"/>
     <sheet name="Diff C A I" sheetId="3" r:id="rId3"/>
     <sheet name="Collection" sheetId="4" r:id="rId4"/>
+    <sheet name="Map" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>what compiler does?</t>
   </si>
@@ -187,6 +188,42 @@
   </si>
   <si>
     <t>one null</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Thread Safe</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>null key</t>
+  </si>
+  <si>
+    <t>null value</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>sorting</t>
   </si>
 </sst>
 </file>
@@ -925,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D0B726-D74E-421B-8741-E1E40919769B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,4 +1105,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E685C2B-133E-46CF-98C6-4E2A08A9EAFB}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>